--- a/Data/LogSolititud.xlsx
+++ b/Data/LogSolititud.xlsx
@@ -368,7 +368,7 @@
       <x:selection activeCell="F20" sqref="F20 F20:F20"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="29.74875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="38.986875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
     <x:row r="1" spans="1:88">
       <x:c r="A1" s="1" t="b">
@@ -7381,6 +7381,3401 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="CJ27" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:88">
+      <x:c r="A28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AI28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AJ28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AK28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AL28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AM28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE28" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF28" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG28" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ28" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:88">
+      <x:c r="A29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BB29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BG29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB29" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF29" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG29" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI29" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ29" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:88">
+      <x:c r="A30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BB30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BG30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB30" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF30" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG30" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI30" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ30" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:88">
+      <x:c r="A31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BB31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BG31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB31" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF31" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG31" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI31" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ31" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:88">
+      <x:c r="A32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BB32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BG32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB32" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF32" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG32" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI32" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ32" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:88">
+      <x:c r="A33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BB33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BG33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB33" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF33" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG33" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI33" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ33" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:88">
+      <x:c r="A34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB34" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF34" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG34" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ34" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:88">
+      <x:c r="A35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB35" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF35" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG35" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ35" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:88">
+      <x:c r="A36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB36" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF36" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG36" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ36" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:88">
+      <x:c r="A37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB37" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF37" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG37" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ37" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:88">
+      <x:c r="A38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB38" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF38" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG38" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ38" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:88">
+      <x:c r="A39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB39" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF39" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG39" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ39" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:88">
+      <x:c r="A40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB40" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF40" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG40" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ40" s="1" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>

--- a/Data/LogSolititud.xlsx
+++ b/Data/LogSolititud.xlsx
@@ -368,7 +368,7 @@
       <x:selection activeCell="F20" sqref="F20 F20:F20"/>
     </x:sheetView>
   </x:sheetViews>
-  <x:sheetFormatPr baseColWidth="10" defaultColWidth="38.986875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="47.514375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <x:sheetData>
     <x:row r="1" spans="1:88">
       <x:c r="A1" s="1" t="b">
@@ -10776,6 +10776,3129 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="CJ40" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:88">
+      <x:c r="A41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB41" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF41" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG41" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ41" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:88">
+      <x:c r="A42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AI42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AJ42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AK42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AL42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AM42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD42" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF42" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG42" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ42" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:88">
+      <x:c r="A43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE43" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF43" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG43" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ43" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:88">
+      <x:c r="A44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE44" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF44" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG44" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ44" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:88">
+      <x:c r="A45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BB45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BG45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE45" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF45" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG45" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI45" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ45" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:88">
+      <x:c r="A46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BB46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BG46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE46" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF46" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG46" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI46" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ46" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:88">
+      <x:c r="A47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BB47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BF47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BG47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE47" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF47" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG47" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI47" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ47" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:88">
+      <x:c r="A48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE48" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF48" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CJ48" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="49" spans="1:88">
+      <x:c r="A49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE49" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF49" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CJ49" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:88">
+      <x:c r="A50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE50" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF50" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG50" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ50" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:88">
+      <x:c r="A51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE51" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF51" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG51" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ51" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:88">
+      <x:c r="A52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Q52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="S52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD52" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE52" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF52" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG52" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ52" s="1" t="b">
         <x:v>1</x:v>
       </x:c>
     </x:row>
